--- a/log_history/Y2_B2526_Microbiology_scanner1763551471676_b1ca36672b00b12497ee6484b11ac574ff9c582399ad1970fdb6d68c5a2b241b.xlsx
+++ b/log_history/Y2_B2526_Microbiology_scanner1763551471676_b1ca36672b00b12497ee6484b11ac574ff9c582399ad1970fdb6d68c5a2b241b.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,389 +442,9 @@
         <v>maryam.ahmed@med.asu.edu.eg</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>241336</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C3" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D3" t="str">
-        <v>13:24:44</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F3" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>241334</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C4" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D4" t="str">
-        <v>13:24:54</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F4" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>241272</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C5" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D5" t="str">
-        <v>13:25:00</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F5" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>241346</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C6" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D6" t="str">
-        <v>13:25:14</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F6" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>241343</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C7" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D7" t="str">
-        <v>13:25:21</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F7" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>241308</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C8" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D8" t="str">
-        <v>13:25:33</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F8" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>241359</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C9" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D9" t="str">
-        <v>13:25:44</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F9" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>241356</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C10" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D10" t="str">
-        <v>13:25:55</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F10" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>241338</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C11" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D11" t="str">
-        <v>13:26:00</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F11" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>241337</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C12" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D12" t="str">
-        <v>13:26:07</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F12" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>241341</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C13" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D13" t="str">
-        <v>13:26:24</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Manual</v>
-      </c>
-      <c r="F13" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>241355</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C14" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D14" t="str">
-        <v>13:26:30</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F14" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>241360</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C15" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D15" t="str">
-        <v>13:26:44</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F15" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>241351</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C16" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D16" t="str">
-        <v>13:26:59</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F16" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>241339</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C17" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D17" t="str">
-        <v>13:27:02</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F17" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>241340</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C18" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D18" t="str">
-        <v>13:27:21</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F18" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>241342</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C19" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D19" t="str">
-        <v>13:27:33</v>
-      </c>
-      <c r="E19" t="str">
-        <v>Scan</v>
-      </c>
-      <c r="F19" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>241354</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C20" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D20" t="str">
-        <v>13:27:46</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Manual</v>
-      </c>
-      <c r="F20" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>241347</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Microbiology</v>
-      </c>
-      <c r="C21" t="str">
-        <v>19/11/2025</v>
-      </c>
-      <c r="D21" t="str">
-        <v>13:27:59</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Manual</v>
-      </c>
-      <c r="F21" t="str">
-        <v>maryam.ahmed@med.asu.edu.eg</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/log_history/Y2_B2526_Microbiology_scanner1763551471676_b1ca36672b00b12497ee6484b11ac574ff9c582399ad1970fdb6d68c5a2b241b.xlsx
+++ b/log_history/Y2_B2526_Microbiology_scanner1763551471676_b1ca36672b00b12497ee6484b11ac574ff9c582399ad1970fdb6d68c5a2b241b.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Microbiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
